--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_3_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_3_square_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.02000000000047</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409983241273949e-12</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>1.971080303806245e-11</v>
+        <v>1.247229270217197e-13</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.687227103758</v>
+        <v>50.36365288928197</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.796581330056185, 60.57787287745981]</t>
+          <t>[36.299871942737084, 64.42743383582686]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.420350669358641e-10</v>
+        <v>3.013478355740062e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>6.840701338717281e-10</v>
+        <v>6.026956711480125e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941348</v>
+        <v>1.855395060678657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.7547634641672714]</t>
+          <t>[1.5660792207084269, 2.144710900648888]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.84945092690597</v>
+        <v>68.79911129204837</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.649238874348626, 74.04966297946332]</t>
+          <t>[60.857344997848905, 76.74087758624782]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.38486486486523</v>
+        <v>18.31527527527571</v>
       </c>
       <c r="X2" t="n">
-        <v>18.03243243243277</v>
+        <v>17.11853853853895</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.73729729729769</v>
+        <v>19.51201201201248</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.47000000000007</v>
+        <v>23.09000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.783741431284682e-09</v>
+        <v>5.15428255631889e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>9.635346176323303e-09</v>
+        <v>1.507550540858838e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>47.68313605208071</v>
+        <v>48.29417095871784</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[29.25409343030468, 66.11217867385675]</t>
+          <t>[30.195700926342425, 66.39264099109326]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.005904565420934e-06</v>
+        <v>4.884700293139588e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005904565420934e-06</v>
+        <v>4.884700293139588e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.924579283280234</v>
+        <v>-0.5534737808126167</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.352263568453619, -1.496894998106848]</t>
+          <t>[-0.9308422677303092, -0.17610529389492413]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0.004336540958253199</v>
       </c>
       <c r="R3" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0.004336540958253199</v>
       </c>
       <c r="S3" t="n">
-        <v>59.38094200237429</v>
+        <v>66.76014308216446</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.235327404298616, 69.52655660044996]</t>
+          <t>[57.19049260794429, 76.32979355638463]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.882702702702725</v>
+        <v>2.033953953953972</v>
       </c>
       <c r="X3" t="n">
-        <v>5.35321321321323</v>
+        <v>0.6471671671671764</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.41219219219222</v>
+        <v>3.420740740740768</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_3_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_3_square_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.2000000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>4.107825191113079e-15</v>
       </c>
       <c r="H2" t="n">
-        <v>1.247229270217197e-13</v>
+        <v>6.604403633667597e-14</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.36365288928197</v>
+        <v>48.06801858168929</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.299871942737084, 64.42743383582686]</t>
+          <t>[35.4840406249719, 60.65199653840669]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.013478355740062e-11</v>
+        <v>1.967759288845627e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>6.026956711480125e-11</v>
+        <v>3.935518577691255e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855395060678657</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5660792207084269, 2.144710900648888]</t>
+          <t>[1.0251843894597314, 1.603816069400196]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="S2" t="n">
-        <v>68.79911129204837</v>
+        <v>63.6006032436343</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[60.857344997848905, 76.74087758624782]</t>
+          <t>[56.10654385323491, 71.0946626340337]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.31527527527571</v>
+        <v>19.92792792792832</v>
       </c>
       <c r="X2" t="n">
-        <v>17.11853853853895</v>
+        <v>18.76756756756794</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.51201201201248</v>
+        <v>21.08828828828871</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.09000000000017</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.15428255631889e-10</v>
+        <v>3.177587304392659e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>1.507550540858838e-09</v>
+        <v>7.791981958650173e-09</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.29417095871784</v>
+        <v>49.29936732387472</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[30.195700926342425, 66.39264099109326]</t>
+          <t>[28.992842800171033, 69.6058918475784]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.884700293139588e-07</v>
+        <v>4.006292153801994e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.884700293139588e-07</v>
+        <v>4.006292153801994e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5534737808126167</v>
+        <v>-0.6918422260157699</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, -0.17610529389492413]</t>
+          <t>[-1.0943686120613094, -0.28931583997023047]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.004336540958253199</v>
+        <v>0.0008830522220535375</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004336540958253199</v>
+        <v>0.0008830522220535375</v>
       </c>
       <c r="S3" t="n">
-        <v>66.76014308216446</v>
+        <v>64.75505713675297</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.19049260794429, 76.32979355638463]</t>
+          <t>[54.39287630004833, 75.1172379734576]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.033953953953972</v>
+        <v>2.563363363363383</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6471671671671764</v>
+        <v>1.071951951951957</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.420740740740768</v>
+        <v>4.054774774774809</v>
       </c>
     </row>
   </sheetData>
